--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Technikum\CGSE\OpenFrameworks\of_v0.11.0_vs2017_release\apps\myApps\MysticForest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34E6E50-9EA7-48FA-9DF0-3F4B4E187AE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170D8642-6CAD-4D03-8054-E3AB40DB787C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Zeiterfassung CGSE</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Billboard Clouds hinzugefügt, Licht neu gesetzt, mehr Bäume platziert, Steuerung verbessert, Projekt auf Github gestellt</t>
+  </si>
+  <si>
+    <t>Powerpointpräsentation erstellt, Gitignore geupdated</t>
   </si>
 </sst>
 </file>
@@ -161,14 +164,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -454,7 +457,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,24 +467,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
       <c r="H2">
         <f>SUM(B4:B21)</f>
-        <v>32.25</v>
+        <v>32.75</v>
       </c>
       <c r="I2" t="s">
         <v>2</v>
@@ -609,52 +612,58 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="5">
+        <v>43478</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="8"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="8"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="8"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="8"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="8"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="8"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="8"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
